--- a/500all/speech_level/speeches_CHRG-114hhrg97350.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg97350.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
   <si>
     <t>committee_name</t>
   </si>
@@ -50,9 +50,6 @@
   </si>
   <si>
     <t>400071</t>
-  </si>
-  <si>
-    <t>Steve Chabot</t>
   </si>
 </sst>
 </file>
@@ -451,9 +448,7 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
+      <c r="G2" t="s"/>
       <c r="H2" t="s"/>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg97350.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg97350.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -50,6 +53,12 @@
   </si>
   <si>
     <t>400071</t>
+  </si>
+  <si>
+    <t>Chabot</t>
+  </si>
+  <si>
+    <t>Steve</t>
   </si>
 </sst>
 </file>
@@ -398,7 +407,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -406,7 +415,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -428,28 +437,36 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/500all/speech_level/speeches_CHRG-114hhrg97350.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg97350.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="118">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -52,13 +55,319 @@
     <t>PROTEGE PROGRAMS SERVING SMALL BUSINESSES?'</t>
   </si>
   <si>
-    <t>400071</t>
-  </si>
-  <si>
-    <t>Chabot</t>
-  </si>
-  <si>
-    <t>Steve</t>
+    <t>412454</t>
+  </si>
+  <si>
+    <t>Member</t>
+  </si>
+  <si>
+    <t>Hanna</t>
+  </si>
+  <si>
+    <t>Richard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman HANNA. The memorandum from members of the DOD testimony, members of our Committee, it references information which supposedly was provided to the Committee. Unfortunately, even though both Minority and Majority staff requested this information several weeks ago, it was not provided.    DOD did provide it to the Senate Committee on Small Business and Entrepreneurship, who were kind enough to share it with us. Last night after DOD told staff they could not get the information--I would like to say that is not right, it is not fair to waste our time, and generally there is no excuse for it. It hindered the ability of this Committee to provide thorough and thoughtful oversight.    I would remind our witnesses that what happens in this room is for the public good, and we are here for their benefit, and they deserve better than this. That is directed to you, Mr. Wesley, with all due respect. I think it is only fair if I give you a minute to respond.</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>WESLEY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. WESLEY. It was provided to both the HAS and SAS in previous requests for information. When we went to provide it to you, it was held up because it had not been cleared a second time. That is the process of the Department to get items cleared before we can release it. Now, we are going through that process to get it re-cleared for you, and it will be provided. It was not our intention to hide it or keep it from you, I want to make that clear.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman HANNA. I believe you because I know it is out there. The problem is we might not have had this hearing at this date had we known there was information that was not provided that should have been provided.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. WESLEY. Just for the record----</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman HANNA. It makes our hearing incomplete.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. WESLEY. Just for the record, that was not requested of me weeks ago. It was requested of me in a phone call last Friday. I did agree to submit it, but I had to go through the proper clearance to do so. It will be provided as requested.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman HANNA. Well, I suggest to you that your staff, whoever told you Friday, is culpable.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. WESLEY. No, that was on a phone call with your staff, sir.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman HANNA. Is that right?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. WESLEY. Yes, sir.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman HANNA. Apparently we talked to you two weeks ago. We all know where we are on this. Would you like to say anything about this before we move on?</t>
+  </si>
+  <si>
+    <t>412379</t>
+  </si>
+  <si>
+    <t>Chu</t>
+  </si>
+  <si>
+    <t>Judy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. CHU. No.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman HANNA. Get to the point, right. Thank you very much. Thank you for being here.    The Federal Government has long seen the value of having successful businesses mentor small and emerging businesses, 13 Federal programs have sprung up to encourage mentor-protege relationships. However, a 2011 Government Accountability Office report questioned the long term effectiveness of these programs.    At that time, the Subcommittee examined these programs and examined whether some inadvertently led small businesses to make decisions that would ultimately disqualify them from Federal contracting. In other words, in its effort to help small businesses, the Federal Government may have harmed those small businesses.    As a result, this Committee included improvements to the civilian agency and Small Business Administration mentor-protege programs as part of the National Defense Reauthorization Act for 2013.    I would like to say Ranking Member Chu was part of that at the time. She actually led that.    As SBA is beginning to implement these changes, now is the right time to ask three questions. The first question is obvious. Are the changes the SBA is making improving the operation of civilian agency and Government-wide mentor-protege programs? The second question goes to the heart of the problem, how are SBA and the Department of Defense, DOD, defining success under the various programs, and are we able to see if any program deliver on its promises. The third question, duplication. While there may be a need for separation of DOD mentorship programs, are there better ways to harmonize all the mentor-protege programs.    Mentor-protege programs require both parties to invest significant time and resources. Federal agencies provide incentives for mentors to make these commitments and must also approve and oversee the programs.    We owe it to the taxpayer and program participants alike to ensure that Federal mentor-protege1 programs ultimately increase the competitive viability of small contractors, so we can all reap the benefits of a healthier industrial base.    I look forward to hearing your testimony today, and I turn to the ranking member for her opening comments.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. CHU. Thank you, Mr. Chairman, for holding this important hearing. I am happy to be here today to fill in for Congress Member Takai, the ranking member of the Contracting and Workforce Subcommittee.    With over $400 billion spent for goods and supplies, the Federal procurement marketplace provides an important customer base for small business. However, the total volume and value of contracts has declined over the last several years, largely due to budget constraints and sequestration. This has led to greater competition between firms as fewer contracting dollars are available.    Given these challenges, the tools and programs available to small businesses play a vital role in enabling small businesses to break into the Federal marketplace. Today's hearing will allow us to focus on the mentor-protege program and what it means for small firms.    Through mentor-protege programs, small businesses are able to receive a broad array of business development assistance through various methods, including training, obtaining certifications, and in some cases, receiving loans or non-competitive subcontract awards.    These benefits not only help protege firms contract with the Government, but also assists them in building up their capacity. Doing so enables them to successfully compete in the marketplace at the conclusion of their mentor-protege agreement.    Small businesses are not only the beneficiaries of these programs, they also incentivize large companies to match with a protege firm. However, there are concerns that mentor-protege programs have become too focused on providing incentives to mentors rather than ensuring proteges actually receive their designated benefits.    In fact, GAO previously found that while certain programs had policies in place to ensure that participants benefitted from the various mentor-protege programs, the information regarding the ability of the protege to compete for contracts without the mentors was not available because agencies did not collect the data on proteges after the conclusion of the agreement.    While some programs have policies to ensure participants benefit from the mentor-protege programs, GAO found that conclusory data collection was inadequate. In fact, we do not know if protege companies are able to successfully compete for contracts without their mentors because agencies neglect to collect that type of information.    Furthermore, several groups have expressed frustration regarding the lack of parity between small business eligibility rules in the various mentor-protege programs.    As a result of these findings, many changes have been made or proposed to the existing mentor-protege programs. Congress passed legislation that would require SBA to approve mentor-protege programs at civilian agencies to ensure that proper controls were put in place.    In fact, in the 112th Congress when I served as ranking member of the Contracting and Workforce Subcommittee, I worked with Congress Member Schilling to introduce the Building Better Partnerships Act. This bill, which was incorporated into the 2013 NDAA, and eventually passed into law, required SBA to expand their program to include other small business subgroups that had previously been excluded.    Earlier this year, SBA finally released the proposed rule for these changes, and the final rules are expected to be released early next year. However, changes to mentor-protege programs have not been limited to civilian programs.    Despite metrics showing growth in its small business participants, many changes were made to the DOD's mentor-protege program. These changes reflect growing doubt that the program is effectively executing its mandated goal, and others worry that the program cost/reimbursement tool is not being properly utilized at some mentor firms.    Because the program is not permanent and requires reauthorization, these concerns may never be addressed. In order to do so, Congress must reach a compromise on a fair NDAA that protects the future of this program.    We know these programs make a difference to small businesses. We have seen many instances of their success. It is my hope that today's hearing will shed light on how the various mentor-protege programs are aiding small businesses that compete in the Federal marketplace.    I look forward to hearing about the steps that DOD and SBA are taking to ensure these small firms are in fact benefitting from their mentor-protege agreements. With that, I thank the witnesses for testifying, and I yield back.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman HANNA. Thank you. If members have opening statements prepared, I ask they submit them for the record.    You have five minutes. When the light goes yellow, you have another minute. We will be lenient. We have a small panel today. I think we will have time. We do want to hear what you have to say.    Before we get started, I would like to welcome Congressman Bridenstine, who is joining us today for purposes of this hearing. Thank you for being here, sir.    We have one panel today. Our first witness is John Shoraka, the Associate Administrator for Government Contracting and Business Development at the Small Business Administration. His office has jurisdiction over size standards, small business goals, and contracting regulation, as well as Government contracting and business development programs.    Our second witness today is Mr. Kenyata Wesley, the Acting Director of Small Business Programs at the Department of Defense. Mr. Wesley is responsible for the small business program and policy, including the SBIR and STTR, and mentor-protege programs.    Thank you both for being here. Mr. Shoraka, you can begin.</t>
+  </si>
+  <si>
+    <t>SHORAKA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. SHORAKA. Thank you, Chairman Hanna and Ranking Member Chu, and members of the Subcommittee. I am honored to be here today to discuss how my agency is implementing changes to the mentor-protege program and the mentor-protege programs of other agencies, as mandated by Section 1347 of the Small Business JOBS Act of 2010, and Section 1641 of the National Defense Authorization Act of 2013.    The Small Business Administration has a long established 8(a) mentor-protege program, which is designed to enable approved mentors to provide various forms of business development assistance to eligible 8(a) program participants.    This can range from technical and/or managerial assistance, financial assistance in the form of equity investments and/or loans, subcontracts, and/or assistance in performing Federal prime contracts through joint venture arrangements.    The goal of the 8(a) mentor-protege relationship is to enhance the overall capability of eligible proteges, improve the protege's ability to successfully compete for both prime and commercial contract opportunities, and increase their chances for entrepreneurial success upon completion of the nine year 8(a) business development program.    Success is different for each 8(a) participant because each mentor-protege agreement uniquely describes the protege's specific needs and provides a detailed timeline for delivery of the assistance the mentor commits to provide to address those needs.    Proteges receive assistance in developing their infrastructure, building technical experience in past performance, and developing quality management systems. They also receive assistance with obtaining security clearances for their employees and facilities, developing prime contract proposal writing skills, and strengthening their ability to manage finances and general administrative business operations.    The 8(a) mentor-protege relationship can also enhance the protege's competitiveness, with both 8(a) and non-8(a) contract awards, as larger, more established mentors can enter into joint venture agreements with proteges to compete for certain Federal Government contracts and subcontracts.    Currently, there are 389 active 8(a) mentor-protege agreements in SBA's portfolio, and 141 SBA approved 8(a) mentor-protege joint ventures. In fiscal year 2015, 8(a) joint venture obligations were valued at $1.42 billion. This includes both 8(a) and non-8(a) procurements.    One of SBA's top priorities is to ensure that the benefits of its contracting programs flow to the intended recipients, and oversight of the agency's 8(a) mentor-protege program is conducted annually by SBA District business opportunities specialists and the headquarter offices of continuing eligibility review.    Each year, mentor-protege relationships are reviewed to ensure that teams continue to meet the objectives of the program, and to monitor activities to mitigate any potential risks associated with fraud, waste, and abuse.    At least annually, the SBA evaluates the success of the mentor-protege relationship to ensure that each protege received the business development assistance promised under its agreement, and that the relationship continues to be of benefit to the protege firms.    Over the past several years, Congress has significantly broadened the scope of SBA's mentor-protege authority. The JOBS Act of 2010 enabled the agency to expand the mentor-protege program to include all other socioeconomic category participants. Subsequently, in the NDAA of 2013, Congress authorized the SBA to create a mentor-protege program to include all small businesses. On February 5, 2015, the SBA issued a proposed rule to establish a Government-wide small business mentor-protege program, and the comment period for that proposed rule has since closed.    We are currently drafting a final rule that will then be sent for interagency review. SBA has begun planning for implementation and has established a working group to oversee the expansion of the program. NDAA 2013 also required the SBA to review the mentor-protege program of other agencies within one year of implementing the final rule to determine whether they should continue. The Department of Defense's program was specifically excluded.    SBA is committed to the full expansion of the mentor-protege program, and across the Administration, we are committed to ensuring that more small businesses have access to programs that will enable them to compete for more contracting opportunities, grow their businesses, and create jobs in our communities.    As Administrator Contreas-Sweet highlighted in her priorities' speech, the SBA will be a market maker for small companies by opening new business channels within the Federal Government.    I want to thank you for your continued leadership and support, and I look forward to your questions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman HANNA. Thank you. Mr. Wesley?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. WESLEY. Thank you for the opportunity to speak today about the Department of Defense's mentor-protege program and how we serve small businesses.    I would like to take the time to explain to you that the mentor-protege program is not just a tool for us but it is one of the most important tools for us in the Department to control, grow, and mentor our industrial base.    The actual mentor-protege program for us, unlike our partners at the SBA, is not just about job growth. It is truly about actually having companies around that can actually ramp up in a time of any war or contingency environment that may arise.    The mentor-protege program allows us to actually get new ideas into the Department and teach small businesses how to actually perform and function within the role of DOD.    Without that, small businesses have an impasse often when it comes down to doing business with the Department, not just with security regulations and policies, but also with accounting regulations and policies, being able to perform cost type contracting and receive those endorsements and certifications. Safety requirements that DOD often requires to work on installations when it comes to manufacturing.    Having a mentor that has already gone through that process, that understands that process, this becomes a valuable tool to remove barriers to entry into the Department.    DOD was the first agency to have a Federal mentor-protege program and become fully operational, and is the only Federal agency currently required by statute to collect information on proteges after they exist the program, of which we do.    Ranking Member Chu, we are one of those agencies who actually do track that information and actually provide it back to our sister agency, the SBA, of how they perform up to two years after the program. We actually provide those metrics.    We actually also collect information on proteges while they are in the program, and I will discuss that later during the question and answer period. They also have insights eligible to how we measure success.    One of the first things I did upon arrival 17 months ago into the Department was to set up a metric program to measure return on investment for the Department. One of the things we have done to improve the long term utilization of these companies is we have tied the mentor-protege agreements beginning this year, this fiscal year, to the top 10 challenges within the Department Commander's top 10 issues. That way, they are tied specifically to a program system of record or work.    That way, when they actually get to subcontract out with a large prime, to get experience, we actually are now trying to combat their number one issue during source selection, which is past performance.    One of the most rigorous challenges a small business has when they go up and compete against established corporations or established companies is they are often given a neutral rating when it comes to source selection. A neutral rating does not harm them, but when you are competing against someone who has had decades of successful performance, it does not help you either.    What we are doing is trying to establish where you can actually receive a rating as a subcontractor. Therefore, that would then eliminate their being behind the eight ball--that is my own phrase--going after a prime contract opportunity.    We are trying to not just build our industrial base, but we want to maintain the industrial base. The mentor-protege program is one of those tools where we can keep companies afloat when it is not a time of war or contingency operation, because now they can receive subcontract opportunities, maybe at lower values, but it keeps the doors open, so that way when we need them, they are around to ramp up in the future.    In closing, I would like to just state that I would thank you all for this opportunity. I look forward to the remainder of our dialogue, and I will be free to answer any questions that you have. Thank you.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman HANNA. Thank you, Mr. Wesley. I am going to ask Ranking Member Chu to ask the first question. Her knowledge in this subject is much greater than anyone else on this panel, I am guessing.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. CHU. Thank you, Mr. Chair. Mr. Wesley, thank you for collecting that data during and after the proteges do leave.    Mr. Shoraka, the mentor-protege programs are very important to me. In the 112th Congress, as you heard, I helped introduce the Building Better Business Partnerships Act, which was incorporated into the 2013 NDAA. I also introduced an amendment which passed into law which allowed for mentor-protege agreements to be grandfathered into the new program until the expiration date of their agreements.    I would like to follow up on the implementation of this amendment. Have you seen these preexisting agreements fitting into the program, and what steps is SBA taking to ensure that these existing mentor-protege programs are still honored?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. SHORAKA. Thank you for that question. We have done an inventory of the existing mentor-protege programs at various agencies, and there are a number of agencies that currently have mentor-protege programs that are very different and unique from the Small Business Administration's mentor-protege program.    At an agency, typically, you look at a prime-sub relationship, where the mentor is the prime and the protege is the sub. We have had long discussions with the agencies that have current plans about how those get implemented into ours, as well as potentially continue on under our umbrella, because they are unique and different from the joint venture mentor-protege program that the SBA has.    I think both in the sense of other agencies' programs as well as the Department of Defense's program, they are different and provide a different tool for the development of proteges.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. CHU. My amendment also clarified that program regulations must protect proteges against actions that negatively impact them or provide disproportionate benefits to the mentor.    I introduced this amendment to ensure that mentors do not receive more benefits from the programs than their proteges. How is SBA working to make sure that this safeguard is being implemented?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. SHORAKA. Thank you. One of the major points that we want to address in implementing this, because there is fraud, waste, and abuse, is protecting the protege. In the 8(a) program, the business opportunities specialist has an annual review which looks at implementation of the joint ventures, and making sure that the protege is receiving their fair share of the contract.    We want to make sure as we expand this exponentially to include all small businesses, that we implement some checks and balances to make sure there is a review process, there is a reporting structure, where at least on an annual basis, a joint venture reports the division of contracts between the protege and the mentor.    I think one of the issues that we have is that we have limited resources within the SBA. The BOSs service the 8(a) companies. As this gets expanded exponentially, how do we make sure we have checks and balances so that a reporting structure is in place to address just the concerns you raised.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. CHU. Are those reports available to us?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. SHORAKA. The reports with respect to?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. CHU. Checks and balances.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. SHORAKA. We are in the process of establishing a pilot program to expand the mentor-protege program across the Federal agency, so once there are reports, we are certainly happy to share them.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. CHU. Let me ask about funding. When Congress mandated the mentor-protege programs for the small business subgroups, there were no funds available for their implementation. SBA has estimated that at least 2,000 firms could become active in the proposed mentor-protege program. Does SBA currently have the resources necessarily to handle such a large number of first time new applicants?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. SHORAKA. I think that is a very important question. As you pointed out, certainly this is a tool for development for the proteges, but one of our main concerns is making sure the protege is benefitting and receiving its fair share, both of the contracts under a joint venture, but also in receiving the benefits that the mentor-protege plan outlines for the protege to receive.    Certainly, if the program is expanded, as you mentioned, from the 389 that are in an 8(a) program now, to over 2,000 potentially, it could have a significant impact on our resources. As you mentioned, there were not additional resources provided to the SBA.    We intend to launch this next summer as a pilot program to determine what the impact is, and from there, decide how it is implemented fully, making sure the benefits flow to the intended recipients.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. CHU. Thank you. My time is up and I yield back.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman HANNA. Thank you. The fiscal year 2016 NDAA would have required DOD to assess affiliations between potential mentors and proteges prior to admitting them to the program.    This raises three questions, and they go to both of you. First, is there reason to believe there is an affiliation between perspective mentors and proteges before they enter the program. Second, does DOD have the capability to perform this assessment. Third, does SBA have any concerns allowing another agency to make these determinations.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. SHORAKA. I am happy to start off. I think under our rules, any statutory mentor-protege program when it comes to affiliation, any assistance that is received from the mentor to the protege in determining the potential affiliation is exempted.    In other words, if you have a mentor-protege relationship under the DOD program, which is a statutory program----</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman HANNA. We are asking about before they enter the program.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. SHORAKA. Beforehand. We do not currently look at affiliation in the Department of Defense with respect to a mentor-protege agreement. Where we would address that is in case of a protest. If there is a protest based on the relationship previously from the mentor to the protege, that is where we would review that and determine if affiliation exists, but we do not currently as a matter of practice----</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman HANNA. It would be after the fact brought on by a third party.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. SHORAKA. Or an interested party, including a contracting officer.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. WESLEY. From a DOD perspective, we actually do currently review and make sure that there were no previous relationships prior to the agreement being signed. All companies can come in and apply, but we actually do a thorough review, and in fact, just last year, I implemented a review at the OSD level of all agreements from the Services.    The Services still have the ability to approve their agreements, but they do not approve them until a gentleman by the name of Robert Stewart, who I actually assigned as the program manager, has reviewed that, and one of the things he checks for is whether or not there is an agreement in place before, where they have a prior relationship beforehand. We do validate that prior.    The last question I believe you asked was do we have the ability--I think I have answered that by saying we are already doing it.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman HANNA. Let me ask you something. Part of this is to create a bank, if you will, of companies that are ready to go. That makes sense, on its face, but you mentioned in your opening statement that part of what you want to do is keep these companies in business, doing business, after they leave.    How do you do that and maintain the integrity of the bidding process in terms of competitiveness, being the low bidder? It sounds as though you just would have to find a way to keep these companies going. I hope that is not the case.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. WESLEY. No. The competition process tends to work itself out, but what we do is during the source selection or during the creating of contract language, if a contracting officer wants to give credit for a company being in the mentor-protege program, they advertise that up front. That way, it is in the competitive documents prior to----</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman HANNA. Are there rules around the points that can be given?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. WESLEY. No, we do not give bonus points to that, but what we do is we say highly encourage to utilize a mentor-protege firm, and in that way, they are entitled or allowed to go out and utilize them prior to going out and signing a new----</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman HANNA. What standard do you use to establish that recommendation?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. WESLEY. As far as what, sir?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman HANNA. If you are going to say that, you must have a reason.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. WESLEY. Yes. What we are trying to do is encourage the use of the program at a higher level and actually make it a focused use. What we are wanting to do--when I came on board, one of the things I looked at is how many companies were around after they graduated the program, but how many were actually receiving work on a continuous basis. To me, that is a monitor of success for the program.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman HANNA. Do you use a subjective method to say maybe for this company, there is not as much need for what they do, as opposed to there is enough in the marketplace?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. WESLEY. No, so what----</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman HANNA. Or is everybody just treated----</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. WESLEY. No. Everyone is treated fairly on this. What happens is it is based on the type of work that is going out for contract. That is where the synergies are leveraged. If I am going out for an engineering support contract and I am going out for communications or electronics, any large business that has a mentor-protege agreement with a specific small business that specializes in electronic chip making or circuit boards or things like that, they would then be able to use their mentor-protege agreement in accordance with that contract.    It would then allow them to actually feed work into their small business that they had been working with, partnering with, that they understand, that they already are doing business with on a continuous basis.    Obviously, that is not a large $20 or $30 million prime contract, but it is enough to keep that company around, because we are encouraging them to continue to be around.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman HANNA. Congressman Bridenstine? I am sorry. Mrs. Lawrence? Forgive me.</t>
+  </si>
+  <si>
+    <t>412638</t>
+  </si>
+  <si>
+    <t>Lawrence</t>
+  </si>
+  <si>
+    <t>Brenda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. LAWRENCE. Thank you. Mr. Wesley, I appreciate the fact that you are collecting information and data on the trends in the Department of Defense. We are on the same page there.    I wanted to know that when you are looking at these trends and you are actually monitoring these firms after they leave, what is the data showing? What is the data telling you?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. WESLEY. What we found is over 90 percent of our applicants believe that the mentor-protege program was successful for them. That is the first thing. Then we found out that over 80 percent of them found out their mentors actually did provide some valuable training and/or information to them that they would not have been able to get on their own. That is a key piece.    The entire point of the mentor-protege program, as you well know, ma'am, is to actually set up and give these companies information that would have been more difficult for them to achieve on their own and become a viable tool more quickly to our industrial base as well as to the overall Department.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. LAWRENCE. It sounds like it is working. Why do we not have more currently participating? We have the ability for 2,000 firms; correct? We currently have 389?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. WESLEY. Actually, I believe we have less active agreements than that, ma'am. I can give you the exact number.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. LAWRENCE. What do you think--that is our buzzer.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. WESLEY. We have 88 total active agreements currently.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. LAWRENCE. Eighty-eight. How do we grow that?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. WESLEY. One of the things I wanted to do was focus on getting the right agreements in place before we focused on growth. There is a reason for that. The mentor-protege program, as you all are aware because you have taken such a great interest in this program, which I thank you for, by the way, it actually to me can be misused if you are not careful.    I genuinely want to make sure that the small businesses or the proteges that are actually in there are getting what they specifically need. We are taking the time to set up the counseling sessions with a tiered review approach where we now actually make sure they are married up with the right company, that they have a good understanding of what the mentor is supposed to give them, and their relationship is actually clear up front.    What we found out through our living and learning process here is sometimes the disputes between a mentor and a protege happen just because there was not a clear understanding of what was going to be delivered by the mentor.    What we wanted to do was actually put training programs in place before a company actually began the agreement, then we start to grow it as more people understand it.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. LAWRENCE. What is your projection of when we will get to the growth phase?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. WESLEY. I would anticipate, ma'am, you will see steady growth over the next three years. What I mean by ``steady growth,'' I am looking at trying to make sure this year we continue the growth pattern, which will add another 30 to 40 agreements this year, and then even higher the following year, and then get up into a couple of hundred the next year. I mean new agreements, let me be clear on that.    The reason I am putting that out there is because it is not just about the growth of the program. It is about the effectiveness of the program.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. LAWRENCE. Exactly.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. WESLEY. When you talk about the effectiveness of the program, I am also talking about the residual usage of the small business firms because although my job is not to actually generate job growth, it is a second, third, and fourth order effect of our program if we do it right.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. LAWRENCE. Mr. Wesley and Mr. Shoraka, one of the frustrations I hear in the field from small businesses is that opportunities like this are available, but they cannot seem to get access to it. My job is to make sure small businesses are aware of programs. When we say it is available, if someone meets the criteria today, they will have access.    One last question to Mr. Shoraka. I am very concerned about opportunities for women owned businesses and veteran owned businesses. Specifically, how can they take advantage, and will this program be an advantage for them?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. SHORAKA. Yes. First of all, thank you for focusing on the women owned small business program, as well as the Service disabled veteran program.    Over the years, because of significant focus, both with the support from the Hill as well as the Administration, we have been successful in getting more business to both of those categories, and expanding the mentor-protege program to include women owned small businesses, to include Service disabled veteran owned small businesses, will certain create additional opportunities for them to participate in the Federal procurement process.    I, too, want to make sure that businesses are aware of these opportunities. We consistently engage our field staff, our District offices, to make sure all categories and all small businesses are aware of the opportunities and are trained on how to take advantage of those opportunities.    We certainly partner with the Department of Defense in that instance. We work with the procurement technical assistance centers. We work with our SBDCs, our small business development centers, et cetera.    I think there can always be additional work to make sure the word is out there, and the training, quite frankly, is out there to take advantage of the programs.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. LAWRENCE. Thank you, and I yield back my time.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman HANNA. Congressman Bridenstine?</t>
+  </si>
+  <si>
+    <t>BRIDENSTINE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. BRIDENSTINE. Thank you, Chairman Hanna and Ranking Member Chu for allowing me to attend this hearing and to ask questions. As a member of the House Armed Services Committee, I am well aware of the importance of the mentor-protege program.    In fact, the 1st District of Oklahoma, from whence I come, is home to many contractors who participate in the mentor-protege program, especially in the design build firms.    My questions are directed to both witnesses. The way the mentor-protege program is now, if a mentor assists a protege through a subcontract, in other words the mentor is the subcontractor, the protege can be penalized as it runs the risk of being considered affiliated and losing its small business status.    If approved by the relevant small business program component director, would not allowing the mentor to subcontract to the protege in certain circumstances strengthen the mentor-protege program, provided there is no reimbursement for any performance by the mentor related to the subcontract or provided the mentor is not the only or the largest subcontractor under the protege's prime contract.    Often assistance is needed from the mentor in performing complex and unusual aspects of the protege's contract. Would not allowing the mentor to demonstrate means of performance through a subcontract potentially serve to strengthen the successful development of the protege? That is for both of you.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. SHORAKA. Thank you for that question. Under our program, the relationship that ensues with respect to pursuing contract opportunities is not a prime/sub relationship, but it is a joint venture relationship, where the protege receives or is to receive a good portion of that contract opportunity, so as to learn from the mentor with respect to how to implement a larger sized contract.    In those instances, the protege is to receive--this gets a little bit complicated, but the joint venture is to receive 50 percent, at least 50 percent of the contract. The protege is to receive 40 percent of that 50 percent.    The mentor, in other words, can do 60 percent of that 50 percent. I know that gets a little bit complicated.    That relationship provides for exactly what you explained, in the sense that the mentor is providing assistance, being able to participate in the contract to a large degree, to make sure the contract is successful, but within that relationship, help the protege grow.    That scenario unfolds under the current 8(a) mentor-protege program. That is the scenario that we are working to unfold for all small businesses as our rule gets finalized and the program is implemented.    I understand that in the Department of Defense world, it is a prime/sub relationship. The prime contractor is the mentor and the subcontractor is usually the protege. Under any of those statutory programs, as the Department of Defense exists, the benefits or the assistance that goes from the mentor to the protege cannot be used against the protege or it cannot determine affiliation. That assistance will be excluded if we are looking at a potential affiliation issue.    However, the scenario that you pointed out is a scenario where outside of this relationship an affiliation can be found, and certainly if our area offices, which do the size determinations, find an affiliation and find that protege to be other than small, that protege then has an opportunity to appeal that decision to our Office of Hearing and Appeals, and that really provides----</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. BRIDENSTINE. How long does that process generally take, the appeal?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. SHORAKA. The appeal process? The Office of Hearing and Appeals is an independent third body that reviews our determinations. I do not know. I do not want to say the exact time frame. I believe it is 15 days that they have to determine on that appeal.    That appeal has to be filed within a short period of time, if that firm is going to file that appeal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. BRIDENSTINE. I am running out of time here. I want to get to my second question, and certainly, we can follow up on the record with maybe comments afterward.    My second question is the DOD mentor-protege program allows the mentor to receive credit toward their subcontracting goals for their assistance to the protege, while the Small Business Administration's mentor-protege program currently does not.    The DOD allows the mentor to receive credit towards their subcontracting goals for their assistance, but the SBA does not. This is a significant issue that establishes a strong incentive for a mentor to provide developmental assistance.    What if anything is the SBA doing to be in line with the DOD MPP on this issue?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. SHORAKA. On our part, as we look--as I had mentioned earlier, the agency programs, in fact, there are other civilian agencies that have programs that are different and unique than the SBA program. As we look to harmonize those programs as a result of the National Defense Authorization Act of 2013, we are looking to see what are some of the benefits that are provided to the mentors and proteges in that unique world, and how can we harmonize that across the Federal Government.    Those are aspects we are looking at. You are absolutely right, as it stands under our mentor-protege program, there is no additional subcontracting credit for assistance provided.    In trying to harmonize that across the Federal Government, that may be something we look at as we implement it Federal-wide.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. BRIDENSTINE. I am about a minute and a half over my time, so I will yield back.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman HANNA. Thank you. Ms. Clarke?</t>
+  </si>
+  <si>
+    <t>412221</t>
+  </si>
+  <si>
+    <t>Clarke</t>
+  </si>
+  <si>
+    <t>Yvette</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. CLARKE. Thank you, Mr. Chairman. I thank our ranking member. I thank our witnesses for being here this morning.    Mr. Shoraka, in your testimony, you discussed the SBA's expansion of its mentor-protege program to include Service disabled veteran owned small businesses, small businesses located in historically under utilized business zones, and women owned small businesses as directed by the JOBS Act of 2010.    In the five years, has the SBA implemented mentor-protege programs for these small businesses, and if so, can you update us as to the progress of these programs.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. SHORAKA. Thank you. The Small Business JOBS Act of 2010 did direct us to expand to the other socio categories, as you mentioned, and we were in the process of drafting the rule to do just that.    The National Defense Authorization Act of 2013 authorized us to go well beyond that. It authorized us to go and expand the program to all small businesses. In effect, we pulled back that rule. We went through the rulemaking process again to expand the program to all small businesses.    The rule was put out for public comment last February and has since closed, and we are in the process of taking into account all the comments we received. We received quite a few comments. We should have a final rule published in the first quarter of 2015.    At the same time, as I mentioned in the testimony, we have a working group established that includes all of our field personnel or representation from our field personnel, from our General Counsel's Office, from the Government Contracting Office, to make sure we implement it in a smart way, but also within the resources that we have at the agency.    We are looking to launch at least on a pilot basis the program in the latter part of the summer of 2016.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. CLARKE. Since the JOBS Act five years ago, we are still in the planning phase is essentially what you are saying, and the expansion of the groups is for all small businesses under the National Defense Act?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. SHORAKA. That is correct; yes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. CLARKE. My concern is there was a reason why these particular businesses were targeted in the spectrum of small businesses out there. The concern is that these businesses continue to be under invested in, under supported. Do you believe or feel as though once this rule is completed, there will be sufficient resources to pay attention to these businesses?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. SHORAKA. Thank you for that question. I think that is one of the issues we are grappling with with respect to resources, right. As we expand this program exponentially to all small businesses, we need to make sure we have the resources not only to implement it in a way that benefits the proteges and benefits the women owned small businesses and Service disabled community as well as the HUBZone community, but in a way that we make sure any potential risk is addressed as well.    In the 8(a) program, we have the benefit and the opportunity to do annual reviews on the 8(a) firms, and those with mentor-protege programs and joint ventures get a review and make sure the benefits are indeed flowing as planned.    Outside of that 8(a) world, we need to develop mechanisms to make sure we have similar oversight.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. CLARKE. If you could give us a sense at some point in time of what you believe or the agency believes will be sufficient in terms of resources, I really get concerned when we expand given the fact that there was a specific concern around these particular businesses and where they are located under the JOBS Act. It is sort of brush aside to look at a more expansive program. Would you please try to give us a sense of that?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. SHORAKA. Yes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. CLARKE. Mr. Wesley, in your testimony, you referred to a GAO report which concluded that 93 percent of protege firms reported their participation in the mentor-protege program enhanced their firms' overall capabilities.    To what would you attribute that high rate of success, and what could we learn from these successes that we can apply to other Government mentor-protege programs?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. WESLEY. I think the first thing that we do is we actually sit down and have a pre-meeting with the firms up front. We make sure they understand exactly what is expected out of each of them. The protege agreements have clear guidelines as well as deliverables. It tells you on the reimbursement side of it, you will not be paid until you have delivered these items. If it is a subcontract credit, you will not receive that subcontract credit until these deliverables have been met.    We give clear delineation. Therefore, we make sure each party knows exactly what is expected of them. We sit down and make sure they have a good understanding. That pre-meeting--I kind of equate it as marriage counseling, if you will. They get that ahead of time so they can understand, they are on the same page both on a financial basis, but also from an actual business perspective. Sometimes, business visions are different. We also try to make sure they marry up to whatever the protege needs is what the mentor is truly going to provide, and do they have the capability of providing it.    There is no need for you to have a mentor go after, guiding a protege for a Top Secret SEI clearance when they do not have one themselves. They do not know how to go through and get one.    We are trying to make sure that they actually have the skills to deliver on what they are promising to deliver. I think that is one of the biggest items I can attribute that to, the pre-discussions ahead of time.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. CLARKE. Have you had an opportunity to sort of look at how these mentor-protege relationships are jelling, if you will, and whether in fact we have models that could be used by SBA to expand the program?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. WESLEY. The one thing I will tell the entire Committee and go on record with is myself and the Small Business Administration are communicating regularly. I have bi-weekly meetings with John Shoraka and his team. We are sharing information.    To answer your question specifically, I do believe that we will be sharing not just our metrics and how we track information, but the tools we use. I believe we do have some working models that we can share with them at any given time going forward. Yes, ma'am. I do believe we can do that.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. CLARKE. Thank you. Mr. Chairman, I have gone over my time, and I yield back.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman HANNA. Thank you. I appreciate your testimony. You were both well prepared and clearly know your subject matter.    If there are no further questions for these witnesses, I want to thank you again for your testimony. Given the President's veto of fiscal year 2016 NDAA, and we hope to work through that, the future of the DOD mentor-protege program is in limbo. Congress must act to reauthorize the program, and as we do, I hope we will consider making the appropriate reforms.    Likewise, as the SBA moves to finalize its rules on Government-wide and civilian agency specific mentor-protege agreements, I hope it will do so and trust it will do so thoughtfully.    I also hope that we are all agreed that the mentor-protege program must successfully demonstrate benefits to the companies and taxpayers by ensuring that the small businesses are better able to compete for contracts when they exit the program.    I look forward to working with my colleagues on these issues, and thank you all for your participation today.    Everyone has five legislative days to amend. I should know that by now. I ask unanimous consent that members have five legislative days to submit statements and supporting materials for the record. Without objection, so ordered.    This hearing is now adjourned.</t>
   </si>
 </sst>
 </file>
@@ -407,7 +716,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:J89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -415,7 +724,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -440,33 +749,2657 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s"/>
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s"/>
+      <c r="H5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" t="s"/>
+      <c r="J5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" t="s"/>
+      <c r="J7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" t="s"/>
+      <c r="J9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" t="s">
         <v>13</v>
       </c>
-      <c r="H2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" t="s"/>
+      <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" t="s"/>
+      <c r="J11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" t="s">
+        <v>31</v>
+      </c>
+      <c r="I13" t="s">
+        <v>32</v>
+      </c>
+      <c r="J13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I15" t="s">
+        <v>32</v>
+      </c>
+      <c r="J15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" t="s">
+        <v>16</v>
+      </c>
+      <c r="J16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" t="s"/>
+      <c r="H17" t="s">
+        <v>37</v>
+      </c>
+      <c r="I17" t="s"/>
+      <c r="J17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" t="s">
+        <v>16</v>
+      </c>
+      <c r="J18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" t="s"/>
+      <c r="H19" t="s">
+        <v>19</v>
+      </c>
+      <c r="I19" t="s"/>
+      <c r="J19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" t="s">
+        <v>16</v>
+      </c>
+      <c r="J20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" t="s">
+        <v>31</v>
+      </c>
+      <c r="I21" t="s">
+        <v>32</v>
+      </c>
+      <c r="J21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" t="s"/>
+      <c r="H22" t="s">
+        <v>37</v>
+      </c>
+      <c r="I22" t="s"/>
+      <c r="J22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" t="s">
+        <v>30</v>
+      </c>
+      <c r="G23" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" t="s">
+        <v>31</v>
+      </c>
+      <c r="I23" t="s">
+        <v>32</v>
+      </c>
+      <c r="J23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24" t="s"/>
+      <c r="H24" t="s">
+        <v>37</v>
+      </c>
+      <c r="I24" t="s"/>
+      <c r="J24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" t="s">
+        <v>30</v>
+      </c>
+      <c r="G25" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" t="s">
+        <v>31</v>
+      </c>
+      <c r="I25" t="s">
+        <v>32</v>
+      </c>
+      <c r="J25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" t="s">
+        <v>18</v>
+      </c>
+      <c r="G26" t="s"/>
+      <c r="H26" t="s">
+        <v>37</v>
+      </c>
+      <c r="I26" t="s"/>
+      <c r="J26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" t="s">
+        <v>14</v>
+      </c>
+      <c r="H27" t="s">
+        <v>31</v>
+      </c>
+      <c r="I27" t="s">
+        <v>32</v>
+      </c>
+      <c r="J27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" t="s">
+        <v>18</v>
+      </c>
+      <c r="G28" t="s"/>
+      <c r="H28" t="s">
+        <v>37</v>
+      </c>
+      <c r="I28" t="s"/>
+      <c r="J28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" t="s">
+        <v>30</v>
+      </c>
+      <c r="G29" t="s">
+        <v>14</v>
+      </c>
+      <c r="H29" t="s">
+        <v>31</v>
+      </c>
+      <c r="I29" t="s">
+        <v>32</v>
+      </c>
+      <c r="J29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" t="s">
+        <v>18</v>
+      </c>
+      <c r="G30" t="s"/>
+      <c r="H30" t="s">
+        <v>37</v>
+      </c>
+      <c r="I30" t="s"/>
+      <c r="J30" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" t="s">
+        <v>30</v>
+      </c>
+      <c r="G31" t="s">
+        <v>14</v>
+      </c>
+      <c r="H31" t="s">
+        <v>31</v>
+      </c>
+      <c r="I31" t="s">
+        <v>32</v>
+      </c>
+      <c r="J31" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32" t="s">
+        <v>14</v>
+      </c>
+      <c r="H32" t="s">
+        <v>15</v>
+      </c>
+      <c r="I32" t="s">
+        <v>16</v>
+      </c>
+      <c r="J32" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" t="s">
+        <v>18</v>
+      </c>
+      <c r="G33" t="s"/>
+      <c r="H33" t="s">
+        <v>37</v>
+      </c>
+      <c r="I33" t="s"/>
+      <c r="J33" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34" t="s">
+        <v>14</v>
+      </c>
+      <c r="H34" t="s">
+        <v>15</v>
+      </c>
+      <c r="I34" t="s">
+        <v>16</v>
+      </c>
+      <c r="J34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" t="s">
+        <v>18</v>
+      </c>
+      <c r="G35" t="s"/>
+      <c r="H35" t="s">
+        <v>37</v>
+      </c>
+      <c r="I35" t="s"/>
+      <c r="J35" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" t="s">
+        <v>12</v>
+      </c>
+      <c r="F36" t="s">
+        <v>13</v>
+      </c>
+      <c r="G36" t="s">
+        <v>14</v>
+      </c>
+      <c r="H36" t="s">
+        <v>15</v>
+      </c>
+      <c r="I36" t="s">
+        <v>16</v>
+      </c>
+      <c r="J36" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37" t="s">
+        <v>18</v>
+      </c>
+      <c r="G37" t="s"/>
+      <c r="H37" t="s">
+        <v>37</v>
+      </c>
+      <c r="I37" t="s"/>
+      <c r="J37" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38" t="s">
+        <v>18</v>
+      </c>
+      <c r="G38" t="s"/>
+      <c r="H38" t="s">
+        <v>19</v>
+      </c>
+      <c r="I38" t="s"/>
+      <c r="J38" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39" t="s">
+        <v>13</v>
+      </c>
+      <c r="G39" t="s">
+        <v>14</v>
+      </c>
+      <c r="H39" t="s">
+        <v>15</v>
+      </c>
+      <c r="I39" t="s">
+        <v>16</v>
+      </c>
+      <c r="J39" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" t="s">
+        <v>12</v>
+      </c>
+      <c r="F40" t="s">
+        <v>18</v>
+      </c>
+      <c r="G40" t="s"/>
+      <c r="H40" t="s">
+        <v>19</v>
+      </c>
+      <c r="I40" t="s"/>
+      <c r="J40" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41" t="s">
+        <v>13</v>
+      </c>
+      <c r="G41" t="s">
+        <v>14</v>
+      </c>
+      <c r="H41" t="s">
+        <v>15</v>
+      </c>
+      <c r="I41" t="s">
+        <v>16</v>
+      </c>
+      <c r="J41" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42" t="s">
+        <v>18</v>
+      </c>
+      <c r="G42" t="s"/>
+      <c r="H42" t="s">
+        <v>19</v>
+      </c>
+      <c r="I42" t="s"/>
+      <c r="J42" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43" t="s">
+        <v>12</v>
+      </c>
+      <c r="F43" t="s">
+        <v>13</v>
+      </c>
+      <c r="G43" t="s">
+        <v>14</v>
+      </c>
+      <c r="H43" t="s">
+        <v>15</v>
+      </c>
+      <c r="I43" t="s">
+        <v>16</v>
+      </c>
+      <c r="J43" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44" t="s">
+        <v>11</v>
+      </c>
+      <c r="E44" t="s">
+        <v>12</v>
+      </c>
+      <c r="F44" t="s">
+        <v>18</v>
+      </c>
+      <c r="G44" t="s"/>
+      <c r="H44" t="s">
+        <v>19</v>
+      </c>
+      <c r="I44" t="s"/>
+      <c r="J44" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" t="s">
+        <v>10</v>
+      </c>
+      <c r="D45" t="s">
+        <v>11</v>
+      </c>
+      <c r="E45" t="s">
+        <v>12</v>
+      </c>
+      <c r="F45" t="s">
+        <v>13</v>
+      </c>
+      <c r="G45" t="s">
+        <v>14</v>
+      </c>
+      <c r="H45" t="s">
+        <v>15</v>
+      </c>
+      <c r="I45" t="s">
+        <v>16</v>
+      </c>
+      <c r="J45" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" t="s">
+        <v>10</v>
+      </c>
+      <c r="D46" t="s">
+        <v>11</v>
+      </c>
+      <c r="E46" t="s">
+        <v>12</v>
+      </c>
+      <c r="F46" t="s">
+        <v>18</v>
+      </c>
+      <c r="G46" t="s"/>
+      <c r="H46" t="s">
+        <v>19</v>
+      </c>
+      <c r="I46" t="s"/>
+      <c r="J46" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" t="s">
+        <v>10</v>
+      </c>
+      <c r="D47" t="s">
+        <v>11</v>
+      </c>
+      <c r="E47" t="s">
+        <v>12</v>
+      </c>
+      <c r="F47" t="s">
+        <v>13</v>
+      </c>
+      <c r="G47" t="s">
+        <v>14</v>
+      </c>
+      <c r="H47" t="s">
+        <v>15</v>
+      </c>
+      <c r="I47" t="s">
+        <v>16</v>
+      </c>
+      <c r="J47" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" t="s">
+        <v>10</v>
+      </c>
+      <c r="D48" t="s">
+        <v>11</v>
+      </c>
+      <c r="E48" t="s">
+        <v>12</v>
+      </c>
+      <c r="F48" t="s">
+        <v>18</v>
+      </c>
+      <c r="G48" t="s"/>
+      <c r="H48" t="s">
+        <v>19</v>
+      </c>
+      <c r="I48" t="s"/>
+      <c r="J48" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" t="s">
+        <v>10</v>
+      </c>
+      <c r="D49" t="s">
+        <v>11</v>
+      </c>
+      <c r="E49" t="s">
+        <v>12</v>
+      </c>
+      <c r="F49" t="s">
+        <v>13</v>
+      </c>
+      <c r="G49" t="s">
+        <v>14</v>
+      </c>
+      <c r="H49" t="s">
+        <v>15</v>
+      </c>
+      <c r="I49" t="s">
+        <v>16</v>
+      </c>
+      <c r="J49" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" t="s">
+        <v>10</v>
+      </c>
+      <c r="D50" t="s">
+        <v>11</v>
+      </c>
+      <c r="E50" t="s">
+        <v>12</v>
+      </c>
+      <c r="F50" t="s">
+        <v>18</v>
+      </c>
+      <c r="G50" t="s"/>
+      <c r="H50" t="s">
+        <v>19</v>
+      </c>
+      <c r="I50" t="s"/>
+      <c r="J50" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" t="s">
+        <v>10</v>
+      </c>
+      <c r="D51" t="s">
+        <v>11</v>
+      </c>
+      <c r="E51" t="s">
+        <v>12</v>
+      </c>
+      <c r="F51" t="s">
+        <v>13</v>
+      </c>
+      <c r="G51" t="s">
+        <v>14</v>
+      </c>
+      <c r="H51" t="s">
+        <v>15</v>
+      </c>
+      <c r="I51" t="s">
+        <v>16</v>
+      </c>
+      <c r="J51" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" t="s">
+        <v>10</v>
+      </c>
+      <c r="D52" t="s">
+        <v>11</v>
+      </c>
+      <c r="E52" t="s">
+        <v>12</v>
+      </c>
+      <c r="F52" t="s">
+        <v>73</v>
+      </c>
+      <c r="G52" t="s">
+        <v>14</v>
+      </c>
+      <c r="H52" t="s">
+        <v>74</v>
+      </c>
+      <c r="I52" t="s">
+        <v>75</v>
+      </c>
+      <c r="J52" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53" t="s">
+        <v>10</v>
+      </c>
+      <c r="D53" t="s">
+        <v>11</v>
+      </c>
+      <c r="E53" t="s">
+        <v>12</v>
+      </c>
+      <c r="F53" t="s">
+        <v>18</v>
+      </c>
+      <c r="G53" t="s"/>
+      <c r="H53" t="s">
+        <v>19</v>
+      </c>
+      <c r="I53" t="s"/>
+      <c r="J53" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54" t="s">
+        <v>10</v>
+      </c>
+      <c r="D54" t="s">
+        <v>11</v>
+      </c>
+      <c r="E54" t="s">
+        <v>12</v>
+      </c>
+      <c r="F54" t="s">
+        <v>73</v>
+      </c>
+      <c r="G54" t="s">
+        <v>14</v>
+      </c>
+      <c r="H54" t="s">
+        <v>74</v>
+      </c>
+      <c r="I54" t="s">
+        <v>75</v>
+      </c>
+      <c r="J54" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55" t="s">
+        <v>10</v>
+      </c>
+      <c r="D55" t="s">
+        <v>11</v>
+      </c>
+      <c r="E55" t="s">
+        <v>12</v>
+      </c>
+      <c r="F55" t="s">
+        <v>18</v>
+      </c>
+      <c r="G55" t="s"/>
+      <c r="H55" t="s">
+        <v>19</v>
+      </c>
+      <c r="I55" t="s"/>
+      <c r="J55" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" t="s">
+        <v>10</v>
+      </c>
+      <c r="D56" t="s">
+        <v>11</v>
+      </c>
+      <c r="E56" t="s">
+        <v>12</v>
+      </c>
+      <c r="F56" t="s">
+        <v>73</v>
+      </c>
+      <c r="G56" t="s">
+        <v>14</v>
+      </c>
+      <c r="H56" t="s">
+        <v>74</v>
+      </c>
+      <c r="I56" t="s">
+        <v>75</v>
+      </c>
+      <c r="J56" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>9</v>
+      </c>
+      <c r="C57" t="s">
+        <v>10</v>
+      </c>
+      <c r="D57" t="s">
+        <v>11</v>
+      </c>
+      <c r="E57" t="s">
+        <v>12</v>
+      </c>
+      <c r="F57" t="s">
+        <v>18</v>
+      </c>
+      <c r="G57" t="s"/>
+      <c r="H57" t="s">
+        <v>19</v>
+      </c>
+      <c r="I57" t="s"/>
+      <c r="J57" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>9</v>
+      </c>
+      <c r="C58" t="s">
+        <v>10</v>
+      </c>
+      <c r="D58" t="s">
+        <v>11</v>
+      </c>
+      <c r="E58" t="s">
+        <v>12</v>
+      </c>
+      <c r="F58" t="s">
+        <v>73</v>
+      </c>
+      <c r="G58" t="s">
+        <v>14</v>
+      </c>
+      <c r="H58" t="s">
+        <v>74</v>
+      </c>
+      <c r="I58" t="s">
+        <v>75</v>
+      </c>
+      <c r="J58" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>9</v>
+      </c>
+      <c r="C59" t="s">
+        <v>10</v>
+      </c>
+      <c r="D59" t="s">
+        <v>11</v>
+      </c>
+      <c r="E59" t="s">
+        <v>12</v>
+      </c>
+      <c r="F59" t="s">
+        <v>18</v>
+      </c>
+      <c r="G59" t="s"/>
+      <c r="H59" t="s">
+        <v>19</v>
+      </c>
+      <c r="I59" t="s"/>
+      <c r="J59" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>9</v>
+      </c>
+      <c r="C60" t="s">
+        <v>10</v>
+      </c>
+      <c r="D60" t="s">
+        <v>11</v>
+      </c>
+      <c r="E60" t="s">
+        <v>12</v>
+      </c>
+      <c r="F60" t="s">
+        <v>73</v>
+      </c>
+      <c r="G60" t="s">
+        <v>14</v>
+      </c>
+      <c r="H60" t="s">
+        <v>74</v>
+      </c>
+      <c r="I60" t="s">
+        <v>75</v>
+      </c>
+      <c r="J60" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>9</v>
+      </c>
+      <c r="C61" t="s">
+        <v>10</v>
+      </c>
+      <c r="D61" t="s">
+        <v>11</v>
+      </c>
+      <c r="E61" t="s">
+        <v>12</v>
+      </c>
+      <c r="F61" t="s">
+        <v>18</v>
+      </c>
+      <c r="G61" t="s"/>
+      <c r="H61" t="s">
+        <v>19</v>
+      </c>
+      <c r="I61" t="s"/>
+      <c r="J61" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>9</v>
+      </c>
+      <c r="C62" t="s">
+        <v>10</v>
+      </c>
+      <c r="D62" t="s">
+        <v>11</v>
+      </c>
+      <c r="E62" t="s">
+        <v>12</v>
+      </c>
+      <c r="F62" t="s">
+        <v>73</v>
+      </c>
+      <c r="G62" t="s">
+        <v>14</v>
+      </c>
+      <c r="H62" t="s">
+        <v>74</v>
+      </c>
+      <c r="I62" t="s">
+        <v>75</v>
+      </c>
+      <c r="J62" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>9</v>
+      </c>
+      <c r="C63" t="s">
+        <v>10</v>
+      </c>
+      <c r="D63" t="s">
+        <v>11</v>
+      </c>
+      <c r="E63" t="s">
+        <v>12</v>
+      </c>
+      <c r="F63" t="s">
+        <v>18</v>
+      </c>
+      <c r="G63" t="s"/>
+      <c r="H63" t="s">
+        <v>19</v>
+      </c>
+      <c r="I63" t="s"/>
+      <c r="J63" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>9</v>
+      </c>
+      <c r="C64" t="s">
+        <v>10</v>
+      </c>
+      <c r="D64" t="s">
+        <v>11</v>
+      </c>
+      <c r="E64" t="s">
+        <v>12</v>
+      </c>
+      <c r="F64" t="s">
+        <v>73</v>
+      </c>
+      <c r="G64" t="s">
+        <v>14</v>
+      </c>
+      <c r="H64" t="s">
+        <v>74</v>
+      </c>
+      <c r="I64" t="s">
+        <v>75</v>
+      </c>
+      <c r="J64" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>9</v>
+      </c>
+      <c r="C65" t="s">
+        <v>10</v>
+      </c>
+      <c r="D65" t="s">
+        <v>11</v>
+      </c>
+      <c r="E65" t="s">
+        <v>12</v>
+      </c>
+      <c r="F65" t="s">
+        <v>18</v>
+      </c>
+      <c r="G65" t="s"/>
+      <c r="H65" t="s">
+        <v>37</v>
+      </c>
+      <c r="I65" t="s"/>
+      <c r="J65" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>9</v>
+      </c>
+      <c r="C66" t="s">
+        <v>10</v>
+      </c>
+      <c r="D66" t="s">
+        <v>11</v>
+      </c>
+      <c r="E66" t="s">
+        <v>12</v>
+      </c>
+      <c r="F66" t="s">
+        <v>73</v>
+      </c>
+      <c r="G66" t="s">
+        <v>14</v>
+      </c>
+      <c r="H66" t="s">
+        <v>74</v>
+      </c>
+      <c r="I66" t="s">
+        <v>75</v>
+      </c>
+      <c r="J66" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>9</v>
+      </c>
+      <c r="C67" t="s">
+        <v>10</v>
+      </c>
+      <c r="D67" t="s">
+        <v>11</v>
+      </c>
+      <c r="E67" t="s">
+        <v>12</v>
+      </c>
+      <c r="F67" t="s">
+        <v>13</v>
+      </c>
+      <c r="G67" t="s">
+        <v>14</v>
+      </c>
+      <c r="H67" t="s">
+        <v>15</v>
+      </c>
+      <c r="I67" t="s">
+        <v>16</v>
+      </c>
+      <c r="J67" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>9</v>
+      </c>
+      <c r="C68" t="s">
+        <v>10</v>
+      </c>
+      <c r="D68" t="s">
+        <v>11</v>
+      </c>
+      <c r="E68" t="s">
+        <v>12</v>
+      </c>
+      <c r="F68" t="s">
+        <v>18</v>
+      </c>
+      <c r="G68" t="s"/>
+      <c r="H68" t="s">
+        <v>92</v>
+      </c>
+      <c r="I68" t="s"/>
+      <c r="J68" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>9</v>
+      </c>
+      <c r="C69" t="s">
+        <v>10</v>
+      </c>
+      <c r="D69" t="s">
+        <v>11</v>
+      </c>
+      <c r="E69" t="s">
+        <v>12</v>
+      </c>
+      <c r="F69" t="s">
+        <v>18</v>
+      </c>
+      <c r="G69" t="s"/>
+      <c r="H69" t="s">
+        <v>37</v>
+      </c>
+      <c r="I69" t="s"/>
+      <c r="J69" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>9</v>
+      </c>
+      <c r="C70" t="s">
+        <v>10</v>
+      </c>
+      <c r="D70" t="s">
+        <v>11</v>
+      </c>
+      <c r="E70" t="s">
+        <v>12</v>
+      </c>
+      <c r="F70" t="s">
+        <v>18</v>
+      </c>
+      <c r="G70" t="s"/>
+      <c r="H70" t="s">
+        <v>92</v>
+      </c>
+      <c r="I70" t="s"/>
+      <c r="J70" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>9</v>
+      </c>
+      <c r="C71" t="s">
+        <v>10</v>
+      </c>
+      <c r="D71" t="s">
+        <v>11</v>
+      </c>
+      <c r="E71" t="s">
+        <v>12</v>
+      </c>
+      <c r="F71" t="s">
+        <v>18</v>
+      </c>
+      <c r="G71" t="s"/>
+      <c r="H71" t="s">
+        <v>37</v>
+      </c>
+      <c r="I71" t="s"/>
+      <c r="J71" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>9</v>
+      </c>
+      <c r="C72" t="s">
+        <v>10</v>
+      </c>
+      <c r="D72" t="s">
+        <v>11</v>
+      </c>
+      <c r="E72" t="s">
+        <v>12</v>
+      </c>
+      <c r="F72" t="s">
+        <v>18</v>
+      </c>
+      <c r="G72" t="s"/>
+      <c r="H72" t="s">
+        <v>92</v>
+      </c>
+      <c r="I72" t="s"/>
+      <c r="J72" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>9</v>
+      </c>
+      <c r="C73" t="s">
+        <v>10</v>
+      </c>
+      <c r="D73" t="s">
+        <v>11</v>
+      </c>
+      <c r="E73" t="s">
+        <v>12</v>
+      </c>
+      <c r="F73" t="s">
+        <v>18</v>
+      </c>
+      <c r="G73" t="s"/>
+      <c r="H73" t="s">
+        <v>37</v>
+      </c>
+      <c r="I73" t="s"/>
+      <c r="J73" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>9</v>
+      </c>
+      <c r="C74" t="s">
+        <v>10</v>
+      </c>
+      <c r="D74" t="s">
+        <v>11</v>
+      </c>
+      <c r="E74" t="s">
+        <v>12</v>
+      </c>
+      <c r="F74" t="s">
+        <v>18</v>
+      </c>
+      <c r="G74" t="s"/>
+      <c r="H74" t="s">
+        <v>92</v>
+      </c>
+      <c r="I74" t="s"/>
+      <c r="J74" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>9</v>
+      </c>
+      <c r="C75" t="s">
+        <v>10</v>
+      </c>
+      <c r="D75" t="s">
+        <v>11</v>
+      </c>
+      <c r="E75" t="s">
+        <v>12</v>
+      </c>
+      <c r="F75" t="s">
+        <v>13</v>
+      </c>
+      <c r="G75" t="s">
+        <v>14</v>
+      </c>
+      <c r="H75" t="s">
+        <v>15</v>
+      </c>
+      <c r="I75" t="s">
+        <v>16</v>
+      </c>
+      <c r="J75" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>9</v>
+      </c>
+      <c r="C76" t="s">
+        <v>10</v>
+      </c>
+      <c r="D76" t="s">
+        <v>11</v>
+      </c>
+      <c r="E76" t="s">
+        <v>12</v>
+      </c>
+      <c r="F76" t="s">
+        <v>101</v>
+      </c>
+      <c r="G76" t="s">
+        <v>14</v>
+      </c>
+      <c r="H76" t="s">
+        <v>102</v>
+      </c>
+      <c r="I76" t="s">
+        <v>103</v>
+      </c>
+      <c r="J76" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>9</v>
+      </c>
+      <c r="C77" t="s">
+        <v>10</v>
+      </c>
+      <c r="D77" t="s">
+        <v>11</v>
+      </c>
+      <c r="E77" t="s">
+        <v>12</v>
+      </c>
+      <c r="F77" t="s">
+        <v>18</v>
+      </c>
+      <c r="G77" t="s"/>
+      <c r="H77" t="s">
+        <v>37</v>
+      </c>
+      <c r="I77" t="s"/>
+      <c r="J77" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>9</v>
+      </c>
+      <c r="C78" t="s">
+        <v>10</v>
+      </c>
+      <c r="D78" t="s">
+        <v>11</v>
+      </c>
+      <c r="E78" t="s">
+        <v>12</v>
+      </c>
+      <c r="F78" t="s">
+        <v>101</v>
+      </c>
+      <c r="G78" t="s">
+        <v>14</v>
+      </c>
+      <c r="H78" t="s">
+        <v>102</v>
+      </c>
+      <c r="I78" t="s">
+        <v>103</v>
+      </c>
+      <c r="J78" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>9</v>
+      </c>
+      <c r="C79" t="s">
+        <v>10</v>
+      </c>
+      <c r="D79" t="s">
+        <v>11</v>
+      </c>
+      <c r="E79" t="s">
+        <v>12</v>
+      </c>
+      <c r="F79" t="s">
+        <v>18</v>
+      </c>
+      <c r="G79" t="s"/>
+      <c r="H79" t="s">
+        <v>37</v>
+      </c>
+      <c r="I79" t="s"/>
+      <c r="J79" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>9</v>
+      </c>
+      <c r="C80" t="s">
+        <v>10</v>
+      </c>
+      <c r="D80" t="s">
+        <v>11</v>
+      </c>
+      <c r="E80" t="s">
+        <v>12</v>
+      </c>
+      <c r="F80" t="s">
+        <v>101</v>
+      </c>
+      <c r="G80" t="s">
+        <v>14</v>
+      </c>
+      <c r="H80" t="s">
+        <v>102</v>
+      </c>
+      <c r="I80" t="s">
+        <v>103</v>
+      </c>
+      <c r="J80" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>9</v>
+      </c>
+      <c r="C81" t="s">
+        <v>10</v>
+      </c>
+      <c r="D81" t="s">
+        <v>11</v>
+      </c>
+      <c r="E81" t="s">
+        <v>12</v>
+      </c>
+      <c r="F81" t="s">
+        <v>18</v>
+      </c>
+      <c r="G81" t="s"/>
+      <c r="H81" t="s">
+        <v>37</v>
+      </c>
+      <c r="I81" t="s"/>
+      <c r="J81" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>9</v>
+      </c>
+      <c r="C82" t="s">
+        <v>10</v>
+      </c>
+      <c r="D82" t="s">
+        <v>11</v>
+      </c>
+      <c r="E82" t="s">
+        <v>12</v>
+      </c>
+      <c r="F82" t="s">
+        <v>101</v>
+      </c>
+      <c r="G82" t="s">
+        <v>14</v>
+      </c>
+      <c r="H82" t="s">
+        <v>102</v>
+      </c>
+      <c r="I82" t="s">
+        <v>103</v>
+      </c>
+      <c r="J82" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>9</v>
+      </c>
+      <c r="C83" t="s">
+        <v>10</v>
+      </c>
+      <c r="D83" t="s">
+        <v>11</v>
+      </c>
+      <c r="E83" t="s">
+        <v>12</v>
+      </c>
+      <c r="F83" t="s">
+        <v>18</v>
+      </c>
+      <c r="G83" t="s"/>
+      <c r="H83" t="s">
+        <v>37</v>
+      </c>
+      <c r="I83" t="s"/>
+      <c r="J83" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>9</v>
+      </c>
+      <c r="C84" t="s">
+        <v>10</v>
+      </c>
+      <c r="D84" t="s">
+        <v>11</v>
+      </c>
+      <c r="E84" t="s">
+        <v>12</v>
+      </c>
+      <c r="F84" t="s">
+        <v>101</v>
+      </c>
+      <c r="G84" t="s">
+        <v>14</v>
+      </c>
+      <c r="H84" t="s">
+        <v>102</v>
+      </c>
+      <c r="I84" t="s">
+        <v>103</v>
+      </c>
+      <c r="J84" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>9</v>
+      </c>
+      <c r="C85" t="s">
+        <v>10</v>
+      </c>
+      <c r="D85" t="s">
+        <v>11</v>
+      </c>
+      <c r="E85" t="s">
+        <v>12</v>
+      </c>
+      <c r="F85" t="s">
+        <v>18</v>
+      </c>
+      <c r="G85" t="s"/>
+      <c r="H85" t="s">
+        <v>19</v>
+      </c>
+      <c r="I85" t="s"/>
+      <c r="J85" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
+        <v>9</v>
+      </c>
+      <c r="C86" t="s">
+        <v>10</v>
+      </c>
+      <c r="D86" t="s">
+        <v>11</v>
+      </c>
+      <c r="E86" t="s">
+        <v>12</v>
+      </c>
+      <c r="F86" t="s">
+        <v>101</v>
+      </c>
+      <c r="G86" t="s">
+        <v>14</v>
+      </c>
+      <c r="H86" t="s">
+        <v>102</v>
+      </c>
+      <c r="I86" t="s">
+        <v>103</v>
+      </c>
+      <c r="J86" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
+        <v>9</v>
+      </c>
+      <c r="C87" t="s">
+        <v>10</v>
+      </c>
+      <c r="D87" t="s">
+        <v>11</v>
+      </c>
+      <c r="E87" t="s">
+        <v>12</v>
+      </c>
+      <c r="F87" t="s">
+        <v>18</v>
+      </c>
+      <c r="G87" t="s"/>
+      <c r="H87" t="s">
+        <v>19</v>
+      </c>
+      <c r="I87" t="s"/>
+      <c r="J87" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="s">
+        <v>9</v>
+      </c>
+      <c r="C88" t="s">
+        <v>10</v>
+      </c>
+      <c r="D88" t="s">
+        <v>11</v>
+      </c>
+      <c r="E88" t="s">
+        <v>12</v>
+      </c>
+      <c r="F88" t="s">
+        <v>101</v>
+      </c>
+      <c r="G88" t="s">
+        <v>14</v>
+      </c>
+      <c r="H88" t="s">
+        <v>102</v>
+      </c>
+      <c r="I88" t="s">
+        <v>103</v>
+      </c>
+      <c r="J88" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="s">
+        <v>9</v>
+      </c>
+      <c r="C89" t="s">
+        <v>10</v>
+      </c>
+      <c r="D89" t="s">
+        <v>11</v>
+      </c>
+      <c r="E89" t="s">
+        <v>12</v>
+      </c>
+      <c r="F89" t="s">
+        <v>13</v>
+      </c>
+      <c r="G89" t="s">
+        <v>14</v>
+      </c>
+      <c r="H89" t="s">
+        <v>15</v>
+      </c>
+      <c r="I89" t="s">
+        <v>16</v>
+      </c>
+      <c r="J89" t="s">
+        <v>117</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
